--- a/biology/Botanique/Xanthomonas/Xanthomonas.xlsx
+++ b/biology/Botanique/Xanthomonas/Xanthomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthomonas est un genre de Protéobacteries de la famille des Xanthomonadaceae, dont beaucoup d'espèces causent des maladies des plantes.
 C'est un genre de bactéries très étudié, car affectant des organismes d'intérêt alimentaires et économique importants pour l'humanité.
@@ -514,11 +526,13 @@
           <t>Pathogenèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xanthomonas peut infecter beaucoup d'espèces cultivées telles que le poivre, le riz, le citron, le coton, la prune, la cerise, la pêche, la tomate et le soja[1].
-Certaines espèces de Xanthomonas causent des taches localisées sur les feuilles ou des cercosporioses tandis que d'autres espèces se propagent de manière systémique dans la plante (pourriture noire, maladie de la brûlure des feuilles)[2]. Ces bactéries contournent les défenses immunitaires de leurs hôtes et injectent un certain nombre de protéines effectrices (TAL effecteurs notamment), dans la plante via leur système de sécrétion de type III. Ces protéines peuvent se lier aux séquences de gènes promoteurs et activer l'expression de certains gènes de la plante d'une manière qui favorise l'infection par la bactérie.
-Des plantes, notamment une variété de riz, sont en cours de sélection pour développer la résistance aux Xanthomonas. Pour cela, la technique des TALENs, justement découverte chez ce genre de bactéries, sert à créer des gènes de résistance[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xanthomonas peut infecter beaucoup d'espèces cultivées telles que le poivre, le riz, le citron, le coton, la prune, la cerise, la pêche, la tomate et le soja.
+Certaines espèces de Xanthomonas causent des taches localisées sur les feuilles ou des cercosporioses tandis que d'autres espèces se propagent de manière systémique dans la plante (pourriture noire, maladie de la brûlure des feuilles). Ces bactéries contournent les défenses immunitaires de leurs hôtes et injectent un certain nombre de protéines effectrices (TAL effecteurs notamment), dans la plante via leur système de sécrétion de type III. Ces protéines peuvent se lier aux séquences de gènes promoteurs et activer l'expression de certains gènes de la plante d'une manière qui favorise l'infection par la bactérie.
+Des plantes, notamment une variété de riz, sont en cours de sélection pour développer la résistance aux Xanthomonas. Pour cela, la technique des TALENs, justement découverte chez ce genre de bactéries, sert à créer des gènes de résistance,.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 juillet 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 juillet 2014) :
 Xanthomonas albilineans
 Xanthomonas arboricola
 Xanthomonas axonopodis
@@ -605,9 +621,11 @@
           <t>Liste des espèces, sous-espèces, variétés et pathovars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (23 juillet 2014)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (23 juillet 2014) :
 Pseudomonas cissicola
 Xanthomonas albilineans
 Xanthomonas alfalfae
